--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>937041.2876791942</v>
+        <v>965507.3566913598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6782017.126251833</v>
+        <v>7271176.982904398</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>209.3371091232755</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>414.6525782897664</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>3.270355224247373</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -899,10 +901,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>98.77355729229591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>151.9667653765978</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1139,10 +1141,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>419.4188973321123</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.7682651318491</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>153.3573077796844</v>
+        <v>253.4730871880425</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1582,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>141.0753921893335</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2002,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>157.748286209126</v>
       </c>
       <c r="D19" t="n">
-        <v>82.45144965817487</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,16 +2298,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979432</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.80079044284906</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>58.33552926585364</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>164.7047943182447</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>199.3789466046895</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>133.9073134702963</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>123.9086344760396</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>273.9958927027854</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>186.1320522797925</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>74.07475062513807</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.4446439462581</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>124.2978542904695</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.2896064432642</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C2" t="n">
-        <v>473.2896064432642</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D2" t="n">
-        <v>473.2896064432642</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E2" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F2" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>2464.07600418556</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.58658931181</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W2" t="n">
-        <v>1710.195239612157</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.475240779904</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y2" t="n">
-        <v>893.1379707347943</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>2353.323727591967</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>2235.817824109472</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>2131.977865624757</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>2027.275931897694</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>1933.630101580598</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>1839.576329798202</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>2057.897725840103</v>
       </c>
       <c r="K3" t="n">
-        <v>644.9335448401225</v>
+        <v>2057.897725840103</v>
       </c>
       <c r="L3" t="n">
-        <v>725.1891208761992</v>
+        <v>2623.387279044847</v>
       </c>
       <c r="M3" t="n">
-        <v>725.1891208761992</v>
+        <v>2623.387279044847</v>
       </c>
       <c r="N3" t="n">
-        <v>725.1891208761992</v>
+        <v>2623.387279044847</v>
       </c>
       <c r="O3" t="n">
-        <v>725.1891208761992</v>
+        <v>3512.868557056318</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>3512.868557056318</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>3512.868557056318</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>3513.563619702276</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>3371.683683999954</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>3186.915487919591</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>2981.942349058857</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>2785.420971892074</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>2621.943625658737</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>2482.25073701203</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>979.9672234039742</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C4" t="n">
-        <v>807.9946602828902</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D4" t="n">
-        <v>807.9946602828902</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E4" t="n">
-        <v>641.7864544357437</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F4" t="n">
-        <v>641.7864544357437</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G4" t="n">
-        <v>641.7864544357437</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>2719.127524473747</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T4" t="n">
-        <v>2475.788176699647</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="U4" t="n">
-        <v>2195.603728199951</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="V4" t="n">
-        <v>1913.89226080798</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W4" t="n">
-        <v>1639.039856980493</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.475960426298</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y4" t="n">
-        <v>1170.13319211604</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>906.4735300690827</v>
+        <v>1808.089101063791</v>
       </c>
       <c r="C5" t="n">
-        <v>479.5728000823827</v>
+        <v>1381.188371077091</v>
       </c>
       <c r="D5" t="n">
-        <v>479.5728000823827</v>
+        <v>957.8957502620915</v>
       </c>
       <c r="E5" t="n">
-        <v>479.5728000823827</v>
+        <v>531.9188104099491</v>
       </c>
       <c r="F5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>801.1857969764337</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M5" t="n">
-        <v>1474.987448089748</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N5" t="n">
-        <v>1474.987448089748</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O5" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2622.65964359693</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2401.734072641563</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>2143.379163237975</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>2143.379163237975</v>
+        <v>3441.386083932337</v>
       </c>
       <c r="W5" t="n">
-        <v>2143.379163237975</v>
+        <v>3044.994734232684</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.659164405723</v>
+        <v>2633.274735400431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1326.321894360613</v>
+        <v>2227.937465355321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>515.5329466256644</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="M6" t="n">
-        <v>1189.334597738979</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T7" t="n">
-        <v>2017.687984891219</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U7" t="n">
-        <v>2017.687984891219</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V7" t="n">
-        <v>2017.687984891219</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W7" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X7" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1755.743090736225</v>
+        <v>1345.746559995139</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.842360749525</v>
+        <v>918.8458300084387</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5497399345252</v>
+        <v>495.553209193439</v>
       </c>
       <c r="E8" t="n">
-        <v>479.5728000823827</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N8" t="n">
-        <v>2075.853571611725</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>2582.652193164031</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>2170.932194331778</v>
       </c>
       <c r="Y8" t="n">
-        <v>2175.591455027755</v>
+        <v>1765.594924286669</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D11" t="n">
-        <v>635.3319296185562</v>
+        <v>753.908118597026</v>
       </c>
       <c r="E11" t="n">
-        <v>209.3549897664137</v>
+        <v>327.9311787448836</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2160.082153146776</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.181423160076</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.655379315307</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.457030428621</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X14" t="n">
-        <v>2579.930517438306</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y14" t="n">
-        <v>2579.930517438306</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>154.0518327230212</v>
       </c>
       <c r="L15" t="n">
-        <v>728.2502693850971</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>398.2829556183066</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>226.3103924972226</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>226.3103924972226</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>226.3103924972226</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2137.443256688079</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>1894.103908913979</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>1613.919460414283</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.207993022312</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1057.355589194825</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>814.7916926406301</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.4489243303722</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>3896.932966279258</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>4225.654392279956</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1105.451355640851</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C19" t="n">
-        <v>933.4787925197672</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1764.52398921737</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1521.960092663175</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1295.617324352917</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5753,49 +5755,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.8257932127802</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>697.8532300916962</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>534.5364572184669</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2261.704841381736</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2091.569793900871</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1848.230446126771</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1568.045997627075</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1286.334530235104</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1286.334530235104</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>1286.334530235104</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1059.991761924846</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>188.235025135897</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1833.368380730673</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.654482149731</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3813.905540636432</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O26" t="n">
-        <v>4659.050190787244</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6315,7 +6317,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2176.752350469914</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1933.413002695814</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1653.228554196118</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1371.517086804147</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1096.66468297666</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>3306.448039710919</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>4195.92931772239</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>4912.127034760888</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3278.556980224822</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.584417103738</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D31" t="n">
-        <v>3106.584417103738</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103738</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>5017.717281294595</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T31" t="n">
-        <v>4774.377933520494</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U31" t="n">
-        <v>4494.193485020799</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V31" t="n">
-        <v>4212.482017628828</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W31" t="n">
-        <v>3937.629613801341</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X31" t="n">
-        <v>3695.065717247146</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y31" t="n">
-        <v>3468.722948936888</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6835,16 +6837,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,25 +6882,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W34" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>1542.018283751469</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
         <v>1375.649804642131</v>
@@ -6938,28 +6940,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1864.149204666993</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1583.964756167297</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1302.253288775326</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1027.400884947839</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>784.8369883936441</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>558.4942200833862</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7175,43 +7177,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686964</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1067.07923602298</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C40" t="n">
-        <v>895.1066729018962</v>
+        <v>985.454412532011</v>
       </c>
       <c r="D40" t="n">
-        <v>731.7899000286669</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>565.5816941815204</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>393.7199199560808</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>227.462950250313</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y40" t="n">
-        <v>1257.245204735046</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>791.5529304648283</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C41" t="n">
-        <v>791.5529304648283</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="D41" t="n">
-        <v>791.5529304648283</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5529304648283</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>1034.172855832976</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X41" t="n">
-        <v>1196.890200509938</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y41" t="n">
-        <v>791.5529304648283</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>433.5136365409612</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.315287654275</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N42" t="n">
-        <v>1781.11693876759</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>2325.683399131046</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>2162.366626257817</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>1996.158420410671</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>2497.65596225213</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.743090736225</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2618.063619462288</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2206.343620630036</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>2175.591455027755</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="M45" t="n">
-        <v>728.2502693850971</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N45" t="n">
-        <v>1402.051920498411</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.4419975874032</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U46" t="n">
-        <v>1774.348637117119</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V46" t="n">
-        <v>1492.637169725148</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W46" t="n">
-        <v>1217.784765897661</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X46" t="n">
-        <v>1217.784765897661</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.4419975874032</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>176.0465185452546</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>425.293481306926</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8055,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>103.5813251345091</v>
+        <v>593.7166556079104</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8070,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>111.9842925248821</v>
+        <v>223.026847924627</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>488.256832526231</v>
+        <v>227.3182851229254</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>223.026847924627</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>898.7821831669708</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>227.8999789210238</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>358.454090486281</v>
       </c>
       <c r="N14" t="n">
-        <v>324.1219290572009</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>105.3831483587887</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>700.6124397087081</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9024,7 +9026,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>353.3848726586904</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9650,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>500.16489571931</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902257</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9963,10 +9965,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.8062660976041</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713902</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176105</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>286.6906472576707</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>405.4090445618843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>137.2756462713009</v>
       </c>
       <c r="O44" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>52.28438515022476</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>213.2946135635574</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>7.06459216385457</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22708,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>165.1633417818091</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22787,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.550063893295089</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>201.9477553484152</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,16 +22995,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.298273121508714</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>267.5156322128095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>267.5156322128093</v>
+        <v>167.3998528044513</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23315,10 +23317,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23555,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>266.5274066545967</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>12.50455128074719</v>
       </c>
       <c r="D19" t="n">
-        <v>79.23215548632213</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12.8063191292122</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.76743673684953</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0981677402029</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>41.5270076916695</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.77629167420068</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.44967133088755</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>145.0638019040643</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>221.4707465641377</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>198.029129164074</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -25925,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>370.8392533984004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>45.95498319940369</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471558.4895040305</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471558.4895040305</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471558.4895040305</v>
+        <v>555781.0342694655</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>471558.4895040306</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>471558.4895040307</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>702538.0039218091</v>
+        <v>702538.0039218089</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>702538.003921809</v>
+        <v>702538.0039218091</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702538.0039218091</v>
+        <v>702538.003921809</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>702538.003921809</v>
+        <v>702538.0039218091</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>471558.4895040306</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>471558.4895040304</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188623.3958016121</v>
+        <v>222312.4137077861</v>
       </c>
       <c r="C2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.413707786</v>
       </c>
       <c r="D2" t="n">
-        <v>188623.3958016121</v>
+        <v>222312.413707786</v>
       </c>
       <c r="E2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.4137077861</v>
       </c>
       <c r="F2" t="n">
-        <v>188623.3958016123</v>
+        <v>222312.4137077861</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687236</v>
       </c>
       <c r="H2" t="n">
+        <v>281015.2015687236</v>
+      </c>
+      <c r="I2" t="n">
+        <v>281015.2015687238</v>
+      </c>
+      <c r="J2" t="n">
+        <v>281015.2015687234</v>
+      </c>
+      <c r="K2" t="n">
         <v>281015.2015687237</v>
       </c>
-      <c r="I2" t="n">
-        <v>281015.2015687234</v>
-      </c>
-      <c r="J2" t="n">
-        <v>281015.2015687235</v>
-      </c>
-      <c r="K2" t="n">
-        <v>281015.2015687234</v>
-      </c>
       <c r="L2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="M2" t="n">
         <v>281015.2015687235</v>
@@ -26350,10 +26352,10 @@
         <v>281015.2015687235</v>
       </c>
       <c r="O2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.413707786</v>
       </c>
       <c r="P2" t="n">
-        <v>188623.3958016122</v>
+        <v>222312.4137077861</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
@@ -26451,13 +26453,13 @@
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114989.714907569</v>
+        <v>-167760.2597309666</v>
       </c>
       <c r="C6" t="n">
-        <v>113097.588856115</v>
+        <v>133422.1419440085</v>
       </c>
       <c r="D6" t="n">
-        <v>113097.588856115</v>
+        <v>133422.1419440085</v>
       </c>
       <c r="E6" t="n">
-        <v>146725.188856115</v>
+        <v>167049.7419440085</v>
       </c>
       <c r="F6" t="n">
-        <v>146725.1888561151</v>
+        <v>167049.7419440085</v>
       </c>
       <c r="G6" t="n">
-        <v>38513.9583101645</v>
+        <v>98295.7993387309</v>
       </c>
       <c r="H6" t="n">
         <v>202465.0791203506</v>
       </c>
       <c r="I6" t="n">
-        <v>202465.0791203504</v>
+        <v>202465.0791203507</v>
       </c>
       <c r="J6" t="n">
-        <v>24388.15063157071</v>
+        <v>-32680.13115721101</v>
       </c>
       <c r="K6" t="n">
-        <v>202465.0791203504</v>
+        <v>202465.0791203506</v>
       </c>
       <c r="L6" t="n">
+        <v>202465.0791203506</v>
+      </c>
+      <c r="M6" t="n">
         <v>202465.0791203505</v>
-      </c>
-      <c r="M6" t="n">
-        <v>202465.0791203504</v>
       </c>
       <c r="N6" t="n">
         <v>202465.0791203505</v>
       </c>
       <c r="O6" t="n">
-        <v>146725.188856115</v>
+        <v>167049.7419440084</v>
       </c>
       <c r="P6" t="n">
-        <v>146725.188856115</v>
+        <v>167049.7419440085</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>137.7344761126317</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>388.01385847248</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81.06623842027952</v>
+        <v>571.2015688936808</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>73.6722500922592</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>465.7417458120015</v>
+        <v>204.8031984086958</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>860.4701407343479</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>204.8031984086958</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>321.0228275868491</v>
       </c>
       <c r="N14" t="n">
-        <v>286.8423062227549</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>82.98391452545533</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>677.5156591963801</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0418444451487</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36370,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632859</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557797</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36683,10 +36685,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.0592278086256</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153661</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439022</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>369.349378528632</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>249.2593843582389</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>382.8939578476548</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>99.99602343685486</v>
       </c>
       <c r="O44" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.76929843599521</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965507.3566913598</v>
+        <v>963589.6390327974</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>209.3371091232755</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>15.84448834180157</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -834,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.68628532417755</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>151.9667653765978</v>
+        <v>201.4628082835983</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>64.54655501193163</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1113,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>394.7560786106948</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>419.4188973321123</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>253.4730871880425</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>78.0415299471379</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>218.008057705788</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>186.5146679205615</v>
+        <v>157.2757405444781</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>157.748286209126</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2298,16 +2298,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.2730214979432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>199.3789466046895</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>164.4983780706852</v>
       </c>
       <c r="D40" t="n">
-        <v>133.9073134702963</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>273.9958927027854</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>74.07475062513807</v>
+        <v>200.1143878900196</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.453694912912</v>
+        <v>1659.195420337565</v>
       </c>
       <c r="C2" t="n">
-        <v>809.0020695358658</v>
+        <v>1232.294690350865</v>
       </c>
       <c r="D2" t="n">
         <v>809.0020695358658</v>
@@ -4333,19 +4333,19 @@
         <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>1150.009524135215</v>
+        <v>533.497279362202</v>
       </c>
       <c r="L2" t="n">
-        <v>1286.36665548672</v>
+        <v>1423.232026479605</v>
       </c>
       <c r="M2" t="n">
-        <v>2176.101402604123</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="N2" t="n">
-        <v>2176.101402604123</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="O2" t="n">
-        <v>3021.246052754936</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P2" t="n">
         <v>3021.246052754936</v>
@@ -4363,19 +4363,19 @@
         <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>3011.240092655207</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.750677781457</v>
+        <v>2912.105587185045</v>
       </c>
       <c r="W2" t="n">
-        <v>2257.359328081804</v>
+        <v>2896.101053506457</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.639329249551</v>
+        <v>2484.381054674205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.302059204442</v>
+        <v>2079.043784629095</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2353.323727591967</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>2235.817824109472</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>2131.977865624757</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>2027.275931897694</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>1933.630101580598</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>1839.576329798202</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>1786.200236560511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>1786.200236560511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>2057.897725840103</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K3" t="n">
-        <v>2057.897725840103</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L3" t="n">
-        <v>2623.387279044847</v>
+        <v>1770.878981273657</v>
       </c>
       <c r="M3" t="n">
-        <v>2623.387279044847</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="N3" t="n">
-        <v>2623.387279044847</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O3" t="n">
-        <v>3512.868557056318</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P3" t="n">
-        <v>3512.868557056318</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q3" t="n">
-        <v>3512.868557056318</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
-        <v>3594.887867141022</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>3513.563619702276</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>3371.683683999954</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>3186.915487919591</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>2981.942349058857</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>2785.420971892074</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>2621.943625658737</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>2482.25073701203</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1155.078879867057</v>
+        <v>748.1972702422584</v>
       </c>
       <c r="C4" t="n">
-        <v>983.1063167459732</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="D4" t="n">
-        <v>819.7895438727439</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="E4" t="n">
-        <v>653.5813380255975</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F4" t="n">
-        <v>481.7195638001579</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G4" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
         <v>71.89775734282044</v>
@@ -4512,28 +4512,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2205.272171443122</v>
+        <v>2207.173122812335</v>
       </c>
       <c r="T4" t="n">
-        <v>2205.272171443122</v>
+        <v>1963.833775038235</v>
       </c>
       <c r="U4" t="n">
-        <v>2205.272171443122</v>
+        <v>1963.833775038235</v>
       </c>
       <c r="V4" t="n">
-        <v>2089.003917271063</v>
+        <v>1682.122307646264</v>
       </c>
       <c r="W4" t="n">
-        <v>1814.151513443576</v>
+        <v>1407.269903818777</v>
       </c>
       <c r="X4" t="n">
-        <v>1571.587616889381</v>
+        <v>1164.706007264582</v>
       </c>
       <c r="Y4" t="n">
-        <v>1345.244848579123</v>
+        <v>938.3632389543241</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.089101063791</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.188371077091</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D5" t="n">
-        <v>957.8957502620915</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E5" t="n">
-        <v>531.9188104099491</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F5" t="n">
-        <v>106.7946285993492</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
         <v>106.7946285993492</v>
@@ -4567,22 +4567,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>970.2737227554036</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>1860.008469872806</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="N5" t="n">
-        <v>2749.743216990209</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="O5" t="n">
-        <v>3594.887867141022</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P5" t="n">
         <v>3594.887867141022</v>
@@ -4594,25 +4594,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3594.887867141022</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>3441.386083932337</v>
+        <v>3028.667877465526</v>
       </c>
       <c r="W5" t="n">
-        <v>3044.994734232684</v>
+        <v>2632.276527765873</v>
       </c>
       <c r="X5" t="n">
-        <v>2633.274735400431</v>
+        <v>2632.276527765873</v>
       </c>
       <c r="Y5" t="n">
-        <v>2227.937465355321</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>71.89775734282044</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>274.6529237674293</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M6" t="n">
-        <v>274.6529237674293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="N6" t="n">
-        <v>1164.387670884832</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O6" t="n">
-        <v>1164.387670884832</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.9768228924842</v>
+        <v>624.7269035972822</v>
       </c>
       <c r="C7" t="n">
-        <v>124.0042597714002</v>
+        <v>452.7543404761982</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0042597714002</v>
+        <v>452.7543404761982</v>
       </c>
       <c r="E7" t="n">
-        <v>124.0042597714002</v>
+        <v>452.7543404761982</v>
       </c>
       <c r="F7" t="n">
-        <v>124.0042597714002</v>
+        <v>280.8925662507586</v>
       </c>
       <c r="G7" t="n">
-        <v>124.0042597714002</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H7" t="n">
-        <v>124.0042597714002</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4749,28 +4749,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>1791.797776188157</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1511.613327688461</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.90186029649</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="W7" t="n">
-        <v>955.0494564690027</v>
+        <v>1283.799537173801</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4855599148078</v>
+        <v>1041.235640619606</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.1427916045499</v>
+        <v>814.8928723093479</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.746559995139</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="C8" t="n">
-        <v>918.8458300084387</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="D8" t="n">
-        <v>495.553209193439</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E8" t="n">
-        <v>71.89775734282044</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F8" t="n">
-        <v>71.89775734282044</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G8" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
         <v>71.89775734282044</v>
@@ -4807,25 +4807,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>787.4060653183195</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>970.2737227554036</v>
+        <v>396.6319083693176</v>
       </c>
       <c r="M8" t="n">
-        <v>1860.008469872806</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="N8" t="n">
-        <v>2749.743216990209</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O8" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P8" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
         <v>3594.887867141022</v>
@@ -4837,19 +4837,19 @@
         <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>3336.532957737434</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>2979.043542863684</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W8" t="n">
-        <v>2582.652193164031</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X8" t="n">
-        <v>2170.932194331778</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1765.594924286669</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>327.5888628019261</v>
       </c>
       <c r="K9" t="n">
-        <v>662.38268391116</v>
+        <v>327.5888628019261</v>
       </c>
       <c r="L9" t="n">
-        <v>662.38268391116</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M9" t="n">
-        <v>662.38268391116</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N9" t="n">
-        <v>662.38268391116</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O9" t="n">
-        <v>700.2421940220529</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U10" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W10" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y10" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1604.101469398726</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.200739412026</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D11" t="n">
-        <v>753.908118597026</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E11" t="n">
-        <v>327.9311787448836</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F11" t="n">
         <v>71.89775734282044</v>
@@ -5044,49 +5044,49 @@
         <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>434.501216159716</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1286.36665548672</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.36665548672</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N11" t="n">
-        <v>2176.101402604123</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O11" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141022</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141022</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>3237.398452267271</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>2841.007102567618</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>2429.287103735365</v>
+        <v>2178.529499852372</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.949833690256</v>
+        <v>1773.192229807262</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>444.9393229643761</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282044</v>
+        <v>444.9393229643761</v>
       </c>
       <c r="M12" t="n">
-        <v>274.6529237674293</v>
+        <v>444.9393229643761</v>
       </c>
       <c r="N12" t="n">
-        <v>1164.387670884832</v>
+        <v>444.9393229643761</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.387670884832</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
         <v>71.89775734282044</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1791.797776188157</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1791.797776188157</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>1791.797776188157</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1961.590884272476</v>
+        <v>1803.024262734889</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.690154285776</v>
+        <v>1803.024262734889</v>
       </c>
       <c r="D14" t="n">
-        <v>1111.397533470776</v>
+        <v>1379.73164191989</v>
       </c>
       <c r="E14" t="n">
-        <v>685.4205936186339</v>
+        <v>953.7547020677472</v>
       </c>
       <c r="F14" t="n">
-        <v>260.2964118080341</v>
+        <v>528.6305202571474</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
         <v>71.89775734282044</v>
@@ -5284,22 +5284,22 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.009524135215</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>1467.822123446196</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N14" t="n">
-        <v>1467.822123446196</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O14" t="n">
-        <v>2312.966773597008</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
         <v>3594.887867141022</v>
@@ -5308,22 +5308,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141022</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="W14" t="n">
-        <v>3198.496517441368</v>
+        <v>2620.081531612252</v>
       </c>
       <c r="X14" t="n">
-        <v>2786.776518609116</v>
+        <v>2208.361532779999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2381.439248564006</v>
+        <v>1803.024262734889</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>154.0518327230212</v>
+        <v>497.6217928929416</v>
       </c>
       <c r="L15" t="n">
-        <v>990.8506408059274</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="M15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="N15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.7631605785773</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710918</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686963</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291426</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291426</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1589.056897064296</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1589.056897064296</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478503</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629315</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1881.933611382284</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,22 +6539,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,19 +6688,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6709,28 +6709,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.3282513713204</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1864.149204666993</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1583.964756167297</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.253288775326</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1027.400884947839</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>784.8369883936441</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.4942200833862</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>985.454412532011</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C40" t="n">
-        <v>985.454412532011</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>985.454412532011</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.454412532011</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1604.101469398726</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1604.101469398726</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
         <v>1327.337941416114</v>
@@ -7411,28 +7411,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>787.4060653183195</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="M41" t="n">
-        <v>1034.172855832976</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N41" t="n">
-        <v>1923.907602950379</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>2769.052253101191</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
         <v>3594.887867141022</v>
@@ -7447,16 +7447,16 @@
         <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3237.398452267271</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2841.007102567618</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.287103735365</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>2023.949833690256</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L42" t="n">
-        <v>71.89775734282044</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M42" t="n">
-        <v>961.6325044602233</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.367251577626</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
         <v>1880.58538792333</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2497.65596225213</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>2325.683399131046</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>2162.366626257817</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>1996.158420410671</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>1824.296646185231</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>1658.039676479463</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>1514.243407987618</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>3547.849253828195</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>3377.71420634733</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T43" t="n">
-        <v>3134.37485857323</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U43" t="n">
-        <v>2854.190410073534</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V43" t="n">
-        <v>2572.478942681563</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W43" t="n">
-        <v>2497.65596225213</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>2497.65596225213</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>2497.65596225213</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>434.501216159716</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.235963277119</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="M44" t="n">
-        <v>2213.970710394522</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.966773597008</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597008</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
         <v>3594.887867141022</v>
@@ -7724,31 +7724,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>101.3693627944557</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M45" t="n">
-        <v>991.1041099118586</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="N45" t="n">
-        <v>991.1041099118586</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.015436205311</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
         <v>71.89775734282044</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.175737275084</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>1838.836389500983</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1558.651941001288</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1276.940473609317</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.08806978183</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>759.5241732276346</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.1814049173767</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>758.5002654165255</v>
+        <v>135.7606242316639</v>
       </c>
       <c r="L2" t="n">
-        <v>176.0465185452546</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
         <v>936.1532296846872</v>
@@ -7993,10 +7993,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8060,19 +8060,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>593.7166556079104</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>51.06354471936819</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>223.026847924627</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846872</v>
+        <v>892.8497646473871</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8297,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>227.3182851229254</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>701.9229593655479</v>
       </c>
       <c r="N6" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>223.026847924627</v>
+        <v>366.3263363987816</v>
       </c>
       <c r="M8" t="n">
         <v>936.1532296846872</v>
@@ -8473,10 +8473,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>271.3630966537311</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,13 +8546,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8692,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7821831669708</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>709.5614131731696</v>
       </c>
       <c r="N11" t="n">
         <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>227.8999789210238</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>358.454090486281</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>709.4097731081839</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>105.3831483587887</v>
+        <v>170.459742225877</v>
       </c>
       <c r="L15" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9026,10 +9026,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>51.86532166782023</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>169.8313495973723</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>500.16489571931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>137.786358778919</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,22 +9880,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>967.5075822902257</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9965,16 +9965,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>52.09727324256919</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>791.8596365713902</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>71.42110271777969</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10837,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10910,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>467.7720854276179</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10922,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>392.0964168176105</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>755.4826946928163</v>
       </c>
       <c r="M41" t="n">
-        <v>286.6906472576707</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>668.7865525946377</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11299,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178783</v>
+        <v>40.04907938177816</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>137.2756462713009</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>52.28438515022476</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>921.8187472975834</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11399,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>213.2946135635574</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22603,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>376.582947860855</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>201.9477553484152</v>
+        <v>152.4517124414147</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22953,16 +22953,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>100.0478449967786</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.1854451728328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20.8938020379199</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>2.298273121508714</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23077,7 +23077,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>167.3998528044513</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>329.5612688967923</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.13019988286487</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>213.7810038658843</v>
+        <v>243.0199312419677</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23548,13 +23548,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.50455128074719</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.8063191292122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>41.5270076916695</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>5.754459419187896</v>
       </c>
       <c r="D40" t="n">
-        <v>27.77629167420068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>145.0638019040643</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>198.029129164074</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919269</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>555781.0342694654</v>
+        <v>555781.0342694652</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>555781.0342694654</v>
+        <v>555781.0342694652</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>555781.0342694655</v>
+        <v>555781.0342694654</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>702538.0039218089</v>
+        <v>702538.003921809</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>702538.0039218091</v>
+        <v>702538.003921809</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>702538.0039218091</v>
+        <v>702538.003921809</v>
       </c>
     </row>
     <row r="12">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>222312.413707786</v>
+      </c>
+      <c r="C2" t="n">
         <v>222312.4137077861</v>
-      </c>
-      <c r="C2" t="n">
-        <v>222312.413707786</v>
       </c>
       <c r="D2" t="n">
         <v>222312.413707786</v>
       </c>
       <c r="E2" t="n">
-        <v>222312.4137077861</v>
+        <v>222312.413707786</v>
       </c>
       <c r="F2" t="n">
-        <v>222312.4137077861</v>
+        <v>222312.413707786</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687236</v>
       </c>
       <c r="H2" t="n">
+        <v>281015.2015687237</v>
+      </c>
+      <c r="I2" t="n">
         <v>281015.2015687236</v>
       </c>
-      <c r="I2" t="n">
-        <v>281015.2015687238</v>
-      </c>
       <c r="J2" t="n">
-        <v>281015.2015687234</v>
+        <v>281015.2015687235</v>
       </c>
       <c r="K2" t="n">
+        <v>281015.2015687236</v>
+      </c>
+      <c r="L2" t="n">
         <v>281015.2015687237</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>281015.2015687237</v>
+      </c>
+      <c r="N2" t="n">
         <v>281015.2015687236</v>
-      </c>
-      <c r="M2" t="n">
-        <v>281015.2015687235</v>
-      </c>
-      <c r="N2" t="n">
-        <v>281015.2015687235</v>
       </c>
       <c r="O2" t="n">
         <v>222312.413707786</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>620.3761832340385</v>
+      </c>
+      <c r="C4" t="n">
         <v>620.3761832340386</v>
-      </c>
-      <c r="C4" t="n">
-        <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
         <v>620.3761832340385</v>
@@ -26429,37 +26429,37 @@
         <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="M4" t="n">
+        <v>800.0602599433673</v>
+      </c>
+      <c r="N4" t="n">
         <v>800.0602599433671</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
         <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26484,28 +26484,28 @@
         <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
         <v>54642.29558054353</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167760.2597309666</v>
+        <v>-168104.8043324557</v>
       </c>
       <c r="C6" t="n">
-        <v>133422.1419440085</v>
+        <v>133077.5973425195</v>
       </c>
       <c r="D6" t="n">
-        <v>133422.1419440085</v>
+        <v>133077.5973425194</v>
       </c>
       <c r="E6" t="n">
-        <v>167049.7419440085</v>
+        <v>166705.1973425195</v>
       </c>
       <c r="F6" t="n">
-        <v>167049.7419440085</v>
+        <v>166705.1973425195</v>
       </c>
       <c r="G6" t="n">
-        <v>98295.7993387309</v>
+        <v>98244.76867654653</v>
       </c>
       <c r="H6" t="n">
-        <v>202465.0791203506</v>
+        <v>202414.0484581663</v>
       </c>
       <c r="I6" t="n">
-        <v>202465.0791203507</v>
+        <v>202414.0484581662</v>
       </c>
       <c r="J6" t="n">
-        <v>-32680.13115721101</v>
+        <v>-32731.16181939514</v>
       </c>
       <c r="K6" t="n">
-        <v>202465.0791203506</v>
+        <v>202414.0484581662</v>
       </c>
       <c r="L6" t="n">
-        <v>202465.0791203506</v>
+        <v>202414.0484581663</v>
       </c>
       <c r="M6" t="n">
-        <v>202465.0791203505</v>
+        <v>202414.0484581663</v>
       </c>
       <c r="N6" t="n">
-        <v>202465.0791203505</v>
+        <v>202414.0484581662</v>
       </c>
       <c r="O6" t="n">
-        <v>167049.7419440084</v>
+        <v>166705.1973425195</v>
       </c>
       <c r="P6" t="n">
-        <v>167049.7419440085</v>
+        <v>166705.1973425195</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>722.7356646217162</v>
+        <v>99.99602343685457</v>
       </c>
       <c r="L2" t="n">
-        <v>137.7344761126317</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
         <v>898.7219667852554</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34780,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>571.2015688936808</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>27.96676420704021</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>184.7148054920041</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852554</v>
+        <v>855.4185017479554</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>204.8031984086958</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="N6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>184.7148054920041</v>
+        <v>328.0142939661587</v>
       </c>
       <c r="M8" t="n">
         <v>898.7219667852554</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>860.4701407343479</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="N11" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>204.8031984086958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>321.0228275868491</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>82.98391452545533</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="L15" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.35023495359066</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>462.7739363632859</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>114.689578266591</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>930.2279594557797</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>29.35023495359069</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>754.4686772153661</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37557,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>369.349378528632</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="M41" t="n">
-        <v>249.2593843582389</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>646.2714658804081</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
+        <v>1.737036949155233</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="M44" t="n">
-        <v>898.7219667852554</v>
-      </c>
-      <c r="N44" t="n">
-        <v>99.99602343685486</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>29.76929843599521</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>898.7219667852554</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
